--- a/excel/mr_unique.xlsx
+++ b/excel/mr_unique.xlsx
@@ -5,25 +5,33 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="884" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
   <si>
-    <t>Col 1 source 1</t>
+    <t xml:space="preserve">this is unique</t>
   </si>
   <si>
-    <t>Col 1 source 2</t>
+    <t xml:space="preserve">a</t>
   </si>
   <si>
-    <t>Col 1 source 3</t>
+    <t xml:space="preserve">b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c</t>
   </si>
 </sst>
 </file>
@@ -31,7 +39,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -120,31 +128,40 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A65536"/>
+  <dimension ref="A1:B65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.9132653061225"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="10.8061224489796"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="10.6632653061225"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
